--- a/テストデータ.xlsx
+++ b/テストデータ.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamut\OneDrive\Documents\プログラミング\jukuSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7718BD9A-F853-4F25-8A5E-B5E11ED26EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF50C5F1-6FBC-4519-BC2E-BA80F2B01CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E2B984F-1259-433D-8CA3-CDDAA278206F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2E2B984F-1259-433D-8CA3-CDDAA278206F}"/>
   </bookViews>
   <sheets>
     <sheet name="授業" sheetId="1" r:id="rId1"/>
+    <sheet name="コース" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
   <si>
     <t>lesson</t>
     <phoneticPr fontId="1"/>
@@ -67,9 +68,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パ図</t>
-  </si>
-  <si>
     <t>00000004</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -77,24 +75,315 @@
     <t>パズル道場【数】</t>
   </si>
   <si>
-    <t>パ数</t>
-  </si>
-  <si>
     <t>00000005</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>個別演習ゼミ</t>
-  </si>
-  <si>
     <t>演習</t>
+  </si>
+  <si>
+    <t>course</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fee</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lesson1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lesson2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lesson3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00000001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00000006</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00000002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00000006</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00000007</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00000007</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東進中学NET</t>
+    <rPh sb="0" eb="4">
+      <t>トウシンチュウガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反復演習ジムeトレ＆eドリル</t>
+    <rPh sb="0" eb="4">
+      <t>ハンプクエンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LOGICTREE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東進衛星予備校</t>
+    <rPh sb="0" eb="7">
+      <t>トウシンエイセイヨビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東大個別指導会 T・MEG</t>
+    <rPh sb="0" eb="7">
+      <t>トウダイコベツシドウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パズル道場 50分コース</t>
+    <rPh sb="3" eb="5">
+      <t>ドウジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パズル道場 100分コース</t>
+    <rPh sb="3" eb="5">
+      <t>ドウジョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パズル道場 150分コース</t>
+    <rPh sb="3" eb="5">
+      <t>ドウジョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デイビッド・セイン英語ジムBasic 100分コース</t>
+    <rPh sb="9" eb="11">
+      <t>エイゴ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デイビッド・セイン英語ジムStandard 100分コース</t>
+    <rPh sb="9" eb="11">
+      <t>エイゴ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デイビッド・セイン英語ジムPremium 200分コース</t>
+    <rPh sb="9" eb="11">
+      <t>エイゴ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lesson4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パズル【図・思】</t>
+    <rPh sb="6" eb="7">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パズル【数】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パズル【国】</t>
+    <rPh sb="3" eb="6">
+      <t>(コク)</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中学ネット</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パズル道場【国語】</t>
+    <rPh sb="3" eb="5">
+      <t>ドウジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コクゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反復演習ジムeトレ＆eドリル</t>
+    <rPh sb="0" eb="4">
+      <t>ハンプクエンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デイビッド・セイン英語ジム</t>
+    <rPh sb="9" eb="11">
+      <t>エイゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00000008</t>
+  </si>
+  <si>
+    <t>00000008</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東大個別指導会T・MEG</t>
+    <rPh sb="0" eb="7">
+      <t>トウダイコベツシドウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TMEG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00000009</t>
+  </si>
+  <si>
+    <t>00000009</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LOGICTREE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東進衛星予備校</t>
+    <rPh sb="0" eb="7">
+      <t>トウシンエイセイヨビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東進</t>
+    <rPh sb="0" eb="2">
+      <t>トウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00000010</t>
+  </si>
+  <si>
+    <t>00000010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00000011</t>
+  </si>
+  <si>
+    <t>00000011</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alias</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パズル50</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パズル100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パズル150</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演習</t>
+    <rPh sb="0" eb="2">
+      <t>エンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セインPremium</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東進中学ネット</t>
+    <rPh sb="0" eb="4">
+      <t>トウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00000005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00000006</t>
+  </si>
+  <si>
+    <t>00000007</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +396,15 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -143,10 +441,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -464,15 +762,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDDE1F44-FB25-48BD-B01B-C48E7618DBFF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
@@ -481,21 +780,21 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -509,7 +808,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
@@ -523,45 +822,395 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D5">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D6">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
+      <c r="A7" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE2E62C1-9ACC-4C7C-A505-0273D8A4A151}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="47.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3">
+        <v>11000</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4">
+        <v>16000</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5">
+        <v>19000</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6">
+        <v>35000</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7">
+        <v>14000</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8">
+        <v>14000</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9">
+        <v>16000</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10">
+        <v>12000</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11">
+        <v>40000</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12">
+        <v>29000</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13">
+        <v>30000</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
